--- a/input/array_annotation.xlsx
+++ b/input/array_annotation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgeisenberger/Dropbox/Research/projects/ht-dna/analysis/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgeisenberger/Dropbox/Research/projects/ht-hite/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C5CBC1-1CAA-E342-B702-1DFCAF9C3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFEEB12-F8ED-244C-9204-11C9FA4B2FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{9CADEE77-FA5B-6F45-B71E-C27C915770A6}"/>
   </bookViews>
@@ -79,15 +79,6 @@
     <t>206909160052_R03C01</t>
   </si>
   <si>
-    <t>e2015.46004</t>
-  </si>
-  <si>
-    <t>e2012.40687</t>
-  </si>
-  <si>
-    <t>e2014.53319</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>s3_col</t>
+  </si>
+  <si>
+    <t>E15_46004</t>
+  </si>
+  <si>
+    <t>E12_40687</t>
+  </si>
+  <si>
+    <t>E14_53319</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,16 +514,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -548,16 +548,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -565,16 +565,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -582,16 +582,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,16 +599,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,16 +616,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,16 +633,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -650,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -667,16 +667,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
